--- a/big_num/demo.xlsx
+++ b/big_num/demo.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaopeng/Work/Scr/local_practice/big_num/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaopeng/work/02-scr/local_practice/big_num/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD2EDB7D-F730-1547-B365-0134046C9771}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5E801C-7498-0247-BC7B-79FF96AB04E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="2160" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{86EC7F49-7C46-2B49-B34A-8DE91BF4CA6D}"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{86EC7F49-7C46-2B49-B34A-8DE91BF4CA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="表1" sheetId="1" r:id="rId1"/>
     <sheet name="表2" sheetId="2" r:id="rId2"/>
+    <sheet name="表三" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +58,118 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.9.18</t>
+  </si>
+  <si>
+    <t>2022.9.19</t>
+  </si>
+  <si>
+    <t>2022.9.20</t>
+  </si>
+  <si>
+    <t>2022.9.21</t>
+  </si>
+  <si>
+    <t>2022.9.22</t>
+  </si>
+  <si>
+    <t>2022.9.23</t>
+  </si>
+  <si>
+    <t>2022.9.24</t>
+  </si>
+  <si>
+    <t>2022.9.25</t>
+  </si>
+  <si>
+    <t>2022.9.26</t>
+  </si>
+  <si>
+    <t>2022.9.27</t>
+  </si>
+  <si>
+    <t>2022.9.28</t>
+  </si>
+  <si>
+    <t>2022.9.29</t>
+  </si>
+  <si>
+    <t>guiyin10086001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyin10086018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,12 +194,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,11 +222,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50A0394-D0F0-7C41-8FBE-4450EDDD6175}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -545,4 +667,293 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CC03D8-8C4C-B343-A4FD-E49C0D449279}">
+  <dimension ref="B4:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="4" spans="2:14">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
+        <v>35</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>